--- a/alfonso.xlsx
+++ b/alfonso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="alfonso" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">Sánchez-Cardona, I., Rodríguez-Montalbán, R., Acevedo-Soto, E., Nieves-Lugo, K. Torres-Oquendo, F., &amp; Toro-Alfonso, J. (2012). Self-efficacy and openness to experience as antecedent of study engagement: An exploratory analysis. Procedia Social and Behavioral Science, 46, 2163-2167. </t>
   </si>
@@ -33,7 +33,10 @@
     <t>Toro-Alfonso, J. (2012).  The current state of research on sexual discrimination. Revista Terapia Psicológica, 30(2), 71-76. [In Spanish}</t>
   </si>
   <si>
-    <t>Toro-Alfonso, J. (In Press). Gender violence or terrorism? Same-sex domestic violence.   Revista Jurídica, Universidad Interamericana de Puerto Rico. [In Spanish] Urzua, A. &amp; Toro-Alfonso, J. &amp; Sánchez, I. (Submmitted). Quality of life among Latin American gay males: The weight of the domains in different countries. Journal of Homosexuality.</t>
+    <t xml:space="preserve">Toro-Alfonso, J. (In Press). Gender violence or terrorism? Same-sex domestic violence.   Revista Jurídica, Universidad Interamericana de Puerto Rico. [In Spanish] </t>
+  </si>
+  <si>
+    <t>Urzua, A. &amp; Toro-Alfonso, J. &amp; Sánchez, I. (Submmitted). Quality of life among Latin American gay males: The weight of the domains in different countries. Journal of Homosexuality.</t>
   </si>
   <si>
     <t>Toro-Alfonso, J., López-Ortiz, M., &amp; Nieves-Lugo, K.  (In Press). Visa for a dream: Gay migration at the Caribbean.   Journal of Caribbean Studies. [In Spanish]</t>
@@ -277,117 +280,6 @@
   </si>
   <si>
     <t>Toro-Alfonso, J.., (1990). Entre Hombres Intervention Program: Training Manual for Latino gay men volunteers Program. N.Y.: Hispanic AIDS Forum New York.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1989). SIDA: Factores sicosociales: Una intervención familiar. Perspectivas de la Educación en Salud, 14, 29-34.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1989). Procedures manual for case management in Puerto Rico. Puerto Rico AIDS Foundation, San Juan, Puerto Rico.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1989). Homosexuality in Puerto Rico. GAY HOTSA. Spain.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1988, July 19). AIDS and adolescent. El Nuevo Día.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1988). Internal Homophobia: Looking for the Inner Oppressor. MACHO TIPS Journal. México.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1988). AIDS: Implications for Homosexual Self-help Supports Efforts ERIC Document Reproduction Service No. ED 277-912.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., (1983, July 7). A Glance at Homosexuality, CLARIDAD.13-14.</t>
-  </si>
-  <si>
-    <t>Nieves-Lugo, K. &amp; Toro-Alfonso, J. (2012). Challenges to antiretroviral adherence: Health beliefs, social support and gender role in non-adherent men living with HIV in Puerto Rico. In C.H. García Cadena, R. Ballester Arnal, &amp; J. A. Piña López (Eds.), Chronic diseases and medication adherence behaviors: Psychological research in Ibero-American countries (pp. 153-173). New York: Nova Science Publishers.</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2011). Preface: Homophobia, the apparent socially-accepted prejudice.  In L. Nieves-Rosa. Homophobia: Social work and public policies (pp.1-12). San Juan, PR: Publicaciones Puertorriqueñas. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Presentación de libro en Ciudad de Guatemala, Guatemala:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toro-Alfonso, J. (Ed.) (2011). Sexualidad y Género: Temas de Actualidad. Guatemala: Ediciones Norma. Librería Sophos, Guatemala.  25 de noviembre de 2011. </t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (Ed.) (2011). Sexuality and gender: Actual issues. Guatemala. Editorial Norma. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2011). Sexual and reproductive health as a human right. In J. Toro-Alfonso (Ed.), Sexuality and gender: Actual issues (pp. ix-xxi). Guatemala. Editorial Norma. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. &amp; Martínez-Taboas, A. (Eds.) (2011). Lesbians, gays, bisexuals, and transgenders: Notes about their health from psychology.  San Juan, PR: Publicaciones Puertorriqueñas. .   [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2011). Child you are…parent you will be: Review about research on homoparentalities. In J. Toro-Alfonso &amp; A. Martínez-Taboas (Eds.), Lesbians, gays, bisexuals, and transgender: Notes about their health from psychology (pp. 117-140).  San Juan, PR: Publicaciones Puertorriqueñas.    [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2010). Masculinities: Challenge for gender studies. In A. L. Galinkin &amp; C. Santos (Org.), Gênero e Psicologia Social: Interfaces (pp.65-90). Brasilia: TechnoPolitik.  [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (Ed.) (2009).  Perspectives on gender and sexuality: Towards a society respectful of Diversity.  Guatemala: GTZ &amp; Universidad del Valle de Guatemala. [In Spanish].http://sophosenlinea.com/libro/perspectivas-sobre-genero-y-sexualidad-en-guatemala_55439</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (Ed.) (2009). Masculinity in evidence: Research on masculinities. San Juan, PR: Publicaciones Puertorriqueñas. [In Spanish]. Available at http://www.publicacionespr.com/cgi-bin/show_libro.cgi?id=454</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2008). Subordinate masculinitites. San Juan, PR: Publicaciones Puertorriqueñas. [In Spanish].http://www.publicacionespr.com/cgi-bin/show_libro.cgi?id=429</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2008). When youth surprise: Perspectives on development and family with gay, lesbian, and bisexual youth. In R. Nina (Ed.), Multidisciplinary approach to adolescence in the Caribbean (pp.46-65). San Juan, PR: Publicaciones Gaviota. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. &amp; Varas-Díaz, N. (2008). Exclusion and HIV/AIDS stigma internalization among men who have sex with men in the Dominican Republic: Implications for health in Latin America and the Caribbean. In J.A. Piña &amp; J.J. Sánchez-Sosa (Coord.), Contribution of psychology to the issue of HIV/AIDS: Research and intervention (pp.235-262). México, DF: UniSon-Plaza y Valdés-UNAM. [In Spanish].</t>
-  </si>
-  <si>
-    <t>Medina, E. J., Toro-Alfonso, J., &amp; Baños, O. (2007). No more at the ink bottle, Gay men: Our lives and HIV in Central America and the Caribbean. Los Angeles, CA: AIDS Project Los Angeles (APLA). [In Spanish].</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2007). Through the way of exclusion: Homophobia and citizenship. San Juan, P.R.: Puerto Rico Civil Rights Commission. [In Spanish].</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2007). Compromised identities: AIDS, mental health, and citizenship of Puerto Rican gay males. In N. Varas Díaz &amp; F. Cintrón (Eds.), Stigma and health in Puerto Rico: Detrimental consequences of the alternate. (pp. 123-146). San Juan, Puerto Rico: Publicaciones Puertorriqueñas. [In Spanish].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toro-Alfonso, J. (Ed.) (2007). Reflections on gender and sexuality. Guatemala City,Guatemala: F &amp; G Editores. [In Spanish].Available at AMAZON.COM   http://www.amazon.com/dp/9992261617  </t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., Rodríguez-Madera, S., Acosta Pérez, E., &amp; Ruiz, Y. (2005). Training needs assessment for secondary prevention at governmental and non-governmental HIV/AIDS service organizations in Puerto Rico: From the academy for the community. In N. Varas-Díaz &amp; I. Serrano-García (Eds.), Community Psychology: Reflections, implications, and new paths (pp. 245-269). San Juan, Puerto Rico: Publicaciones Puertorriqueñas. [In Spanish] Available at http://www.publicacionespr.com/cgi-bin/show_libro.cgi?id=312</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., &amp; Rodríguez-Madera, S. (Eds.) (2005). Beyond gender: Domestic violence among same-sex couples. San Juan, Puerto Rico: Ediciones Huracán. [In Spanish]  Available at http://libreriaisla.com/mm5/merchant.mvcScreen=PROD&amp;Store_Code=LI&amp;Product_Code=1932913025&amp;Category_Code=josetoroalfonso</t>
-  </si>
-  <si>
-    <t>Rodríguez-Madera, S., &amp; Toro-Alfonso, J. (2005). Gender as an obstacle in HIV/AIDS Prevention: Considerations for the development of HIV/AIDS prevention efforts for Male-to-Female Transgenders. In W. Bockting, &amp; E. Avery (Eds.), Transgender health and HIV prevention: Needs assessment studies from transgender communities (pp. 113-122). Binghamton, NY: Haworth Press.</t>
-  </si>
-  <si>
-    <t>Bernal, G., Toro-Alfonso, J., &amp; Santiago, I. J. (2005). University Center for Psychological Services and Research: Psychotherapy training. In G. Bernal, &amp; A. Martínez-Taboas (Eds.), Theory and practice of psychotherapy in Puerto Rico (pp. 337-356). San Juan, PR: Publicaciones Puertorriqueñas. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J., &amp; Varas-Díaz, N. (2004). El desarrollo de redes de apoyo para hombres que tienen sexo con hombres y viven con VIH/SIDA: Alternativa para la intervención en política pública. In C. Cáceres, T. Frasca, M. Pecheny &amp; V. Terto (Eds.), Ciudadanía sexual en América Latina: Abriendo el debate (pp. 79-92). Lima, Perú: Universidad Cayetano Heredia. [In Spanish] http://www.scribd.com/doc/11433215/ciudadania-sexual-en-america-latina-abriendo-el-debate-2004</t>
-  </si>
-  <si>
-    <t>Rodríguez-Madera, S., &amp; Toro-Alfonso, J. (2004). Como en tu casa: El legado de la violencia intergeneracional en las relaciones de pareja en un grupo de hombres gay puertorriqueños. En L. Oblitas (Ed.), Manual de psicología de la salud. México, DF: Thompson Iberoamerica. [In Spanish].</t>
-  </si>
-  <si>
-    <t>Varas-Díaz, N., Serrano-García, I., &amp; Toro-Alfonso, J. (2004). Stigma and social difference: HIV/AIDS in Puerto Rico. San Juan, Puerto Rico: Ediciones Huracán. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (2002). Risk and vulnerability. In C. Cáceres, M. Pecheny &amp; V. Terto (Eds.), AIDS and sex among men in Latin America: Vulnerabilities, strengths, and proposals for action. (pp. 81-102) Lima, Perú; University of Heredia and the Joint Program for AIDS of the United Nations (UNAIDS). [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (1999). Domestic violence among same sex partners in the Gay and Lesbian community in Puerto Rico: Approaching the issue, In S. Lundy &amp; B. Leventhal (Eds.),Same sex domestic violence: Strategies for change. (pp. 157-164) Newbury Park, CA:SAGE. Available at http://www.amazon.com/Same-Sex-Domestic-Violence-Strategies-against/dp/0761903232</t>
-  </si>
-  <si>
-    <t>Schifter, J., Madrigal, J., &amp; Toro-Alfonso, J. (1997). Ojos que no ven...Psiquiatría y homofobia..San José, Costa Rica: Editorial ILPES. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (1997). Identificando al opresor que llevamos adentro, In J. Schifter, J. Madrigal &amp; J. Toro-Alfonso (Eds.), Ojos que no ven...Psiquiatría y homofobia. (pp.211-222) San José, Costa Rica: Editorial ILPES. [In Spanish]</t>
-  </si>
-  <si>
-    <t>Toro-Alfonso, J. (1995). The HIV/AIDS air bridge between Puerto Rico and New York: Theneed for research from a community perspective. In B. Meléndez (Ed.), The HIV/AIDS Epidemic in a Commuting population. (pp. 79-82) New York, NY: CUNY.</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,186 +1532,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
